--- a/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17328" windowHeight="6720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
     <sheet name="Summary" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$69</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -79,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="375">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -805,9 +808,6 @@
     <t>2025-09-07T12:29:00Z</t>
   </si>
   <si>
-    <t>In caso di assenza del dato il campo viene automaticamente impostato con il valore "TREATMENT"</t>
-  </si>
-  <si>
     <t>Server non disponibile</t>
   </si>
   <si>
@@ -1102,7 +1102,324 @@
     <t>Tipo di referti non gestita</t>
   </si>
   <si>
-    <t>Impossibile inviare richiesta con action_id non valido perché è obbligatorio selezionarlo dai valori corretti</t>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT26</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.34b1c44d5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9e75516e7700754a950db0fdf44a8455</t>
+  </si>
+  <si>
+    <t>2025-09-08T13:38:36Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a4afaff923^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>fbebed9a05cee24d398675b9ccf209ac</t>
+  </si>
+  <si>
+    <t>2025-09-08T13:39:17Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c7eb66b5d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>99ffe3954fdc5d747c76f390f2d9fb8f</t>
+  </si>
+  <si>
+    <t>2025-09-08T13:52:07Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e8ee8fbe65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>198e05987a996b4fdf99549b9cad6dd0</t>
+  </si>
+  <si>
+    <t>2025-09-08T13:54:22Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d8c25b6efb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>9ab08c932386ffa8dd936ee08edc8bed</t>
+  </si>
+  <si>
+    <t>2025-09-08T13:55:54Z</t>
+  </si>
+  <si>
+    <t>2025-09-08T13:59:51Z</t>
+  </si>
+  <si>
+    <t>1fcde94aea537a4fddab26ebda0f6fa6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.59520fa893^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T14:01:35Z</t>
+  </si>
+  <si>
+    <t>392c5476e4358e734bddec9f1a0db7f7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.5b61a4301a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:11:37Z</t>
+  </si>
+  <si>
+    <t>2a21ea0fdd9513c2b1c1b1c7ee645c57</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a17a4debbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:13:40Z</t>
+  </si>
+  <si>
+    <t>a493b13cd92e829ac6567433a21dd422</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.50e489c53b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:15:42Z</t>
+  </si>
+  <si>
+    <t>72282ab34dc918a7ebed01dcf2f55405</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6598ce20af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:17:07Z</t>
+  </si>
+  <si>
+    <t>0a3e7e0e12cbaa88d8e2852d4b867c4d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.06c2ad62b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:18:30Z</t>
+  </si>
+  <si>
+    <t>3831dc1ad63d606e7a720df5958b6bf7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.bcbd175bb4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:19:46Z</t>
+  </si>
+  <si>
+    <t>54506fb033a8a9e0a7e35d8974dba4a5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ff294db95d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:21:04Z</t>
+  </si>
+  <si>
+    <t>45d02d2e9b275f110c2f9594977ba305</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.9e2c751490^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:22:25Z</t>
+  </si>
+  <si>
+    <t>e2b860572782a8ab06c30855c5527c8a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c67ecf2b24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:29:07Z</t>
+  </si>
+  <si>
+    <t>dd0e21e2d283b374647e5afe72667d87</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d99186ac59^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:30:46Z</t>
+  </si>
+  <si>
+    <t>60eca2b31c20c7ccbf0e74f2eb58fca1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.963afc0e2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:31:58Z</t>
+  </si>
+  <si>
+    <t>caf999ab3fd718351ed19bcef5b21e59</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6f56f2d1c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:34:25Z</t>
+  </si>
+  <si>
+    <t>63e264def81ab6c7f7c6b38ec698a1c7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7396c05cf3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:35:51Z</t>
+  </si>
+  <si>
+    <t>042336bf5ec25a012c5e9efdf2ccf612</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.943b74a8a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1702,6 +2019,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,6 +2125,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="LISTA VALORI"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3173,11 +3508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W609"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3219,12 +3554,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3245,14 +3580,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3273,12 +3608,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3300,12 +3635,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="50"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3326,8 +3661,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3509,7 +3844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -3533,11 +3868,9 @@
         <v>95</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="38" t="s">
-        <v>177</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
@@ -3552,7 +3885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
         <v>32</v>
       </c>
@@ -3576,11 +3909,9 @@
         <v>95</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="38" t="s">
-        <v>177</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -3619,11 +3950,9 @@
         <v>95</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>276</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
@@ -3662,11 +3991,9 @@
         <v>95</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>276</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
@@ -3713,19 +4040,19 @@
         <v>52</v>
       </c>
       <c r="O15" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" s="38" t="s">
         <v>178</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>179</v>
       </c>
       <c r="T15" s="38"/>
       <c r="U15" s="39" t="s">
@@ -3768,19 +4095,19 @@
         <v>52</v>
       </c>
       <c r="O16" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="38" t="s">
         <v>178</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="38" t="s">
-        <v>179</v>
       </c>
       <c r="T16" s="38"/>
       <c r="U16" s="39" t="s">
@@ -3811,13 +4138,13 @@
         <v>45907</v>
       </c>
       <c r="G17" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="37" t="s">
         <v>180</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>181</v>
       </c>
       <c r="J17" s="38" t="s">
         <v>52</v>
@@ -3831,19 +4158,19 @@
         <v>52</v>
       </c>
       <c r="O17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P17" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R17" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
@@ -3872,13 +4199,13 @@
         <v>45907</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J18" s="38" t="s">
         <v>52</v>
@@ -3892,19 +4219,19 @@
         <v>52</v>
       </c>
       <c r="O18" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P18" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q18" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R18" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S18" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="39"/>
@@ -3933,13 +4260,13 @@
         <v>45907</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H19" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="42" t="s">
         <v>187</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>188</v>
       </c>
       <c r="J19" s="38" t="s">
         <v>52</v>
@@ -3953,19 +4280,19 @@
         <v>52</v>
       </c>
       <c r="O19" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S19" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T19" s="38"/>
       <c r="U19" s="39"/>
@@ -3994,13 +4321,13 @@
         <v>45907</v>
       </c>
       <c r="G20" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>193</v>
       </c>
       <c r="J20" s="38" t="s">
         <v>52</v>
@@ -4014,19 +4341,19 @@
         <v>52</v>
       </c>
       <c r="O20" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R20" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S20" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
@@ -4055,13 +4382,13 @@
         <v>45907</v>
       </c>
       <c r="G21" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="I21" s="42" t="s">
         <v>195</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>196</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>52</v>
@@ -4075,19 +4402,19 @@
         <v>52</v>
       </c>
       <c r="O21" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -4116,13 +4443,13 @@
         <v>45907</v>
       </c>
       <c r="G22" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="I22" s="42" t="s">
         <v>198</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>199</v>
       </c>
       <c r="J22" s="38" t="s">
         <v>52</v>
@@ -4136,19 +4463,19 @@
         <v>52</v>
       </c>
       <c r="O22" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P22" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R22" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S22" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
@@ -4177,13 +4504,13 @@
         <v>45907</v>
       </c>
       <c r="G23" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="I23" s="42" t="s">
         <v>201</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>202</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>52</v>
@@ -4197,19 +4524,19 @@
         <v>52</v>
       </c>
       <c r="O23" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P23" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R23" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S23" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -4238,13 +4565,13 @@
         <v>45907</v>
       </c>
       <c r="G24" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="I24" s="42" t="s">
         <v>204</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>205</v>
       </c>
       <c r="J24" s="38" t="s">
         <v>52</v>
@@ -4258,19 +4585,19 @@
         <v>52</v>
       </c>
       <c r="O24" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P24" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R24" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T24" s="38"/>
       <c r="U24" s="39"/>
@@ -4279,33 +4606,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>68</v>
+        <v>275</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="F25" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>52</v>
@@ -4319,19 +4646,19 @@
         <v>52</v>
       </c>
       <c r="O25" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q25" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R25" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S25" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T25" s="38"/>
       <c r="U25" s="39"/>
@@ -4340,33 +4667,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>69</v>
+        <v>277</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="F26" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="J26" s="38" t="s">
         <v>52</v>
@@ -4380,19 +4707,19 @@
         <v>52</v>
       </c>
       <c r="O26" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R26" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q26" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R26" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T26" s="38"/>
       <c r="U26" s="39"/>
@@ -4401,33 +4728,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="F27" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>222</v>
+        <v>325</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="J27" s="38" t="s">
         <v>52</v>
@@ -4441,19 +4768,19 @@
         <v>52</v>
       </c>
       <c r="O27" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R27" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P27" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q27" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R27" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
@@ -4462,33 +4789,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="F28" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>224</v>
+        <v>329</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>225</v>
+        <v>328</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>226</v>
+        <v>327</v>
       </c>
       <c r="J28" s="38" t="s">
         <v>52</v>
@@ -4502,19 +4829,19 @@
         <v>52</v>
       </c>
       <c r="O28" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q28" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S28" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P28" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S28" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39"/>
@@ -4523,33 +4850,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="F29" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>228</v>
+        <v>331</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="J29" s="38" t="s">
         <v>52</v>
@@ -4563,19 +4890,19 @@
         <v>52</v>
       </c>
       <c r="O29" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q29" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S29" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P29" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q29" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R29" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S29" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39"/>
@@ -4584,33 +4911,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="F30" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="J30" s="38" t="s">
         <v>52</v>
@@ -4624,19 +4951,19 @@
         <v>52</v>
       </c>
       <c r="O30" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R30" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S30" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P30" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q30" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R30" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S30" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T30" s="38"/>
       <c r="U30" s="39"/>
@@ -4645,33 +4972,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="F31" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>233</v>
+        <v>336</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="J31" s="38" t="s">
         <v>52</v>
@@ -4685,19 +5012,19 @@
         <v>52</v>
       </c>
       <c r="O31" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q31" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P31" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q31" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R31" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S31" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39"/>
@@ -4706,33 +5033,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="F32" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="J32" s="38" t="s">
         <v>52</v>
@@ -4746,19 +5073,19 @@
         <v>52</v>
       </c>
       <c r="O32" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P32" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q32" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R32" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P32" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q32" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R32" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S32" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T32" s="38"/>
       <c r="U32" s="39"/>
@@ -4767,33 +5094,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="F33" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>240</v>
+        <v>343</v>
       </c>
       <c r="I33" s="42" t="s">
-        <v>241</v>
+        <v>344</v>
       </c>
       <c r="J33" s="38" t="s">
         <v>52</v>
@@ -4807,19 +5134,19 @@
         <v>52</v>
       </c>
       <c r="O33" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P33" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P33" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q33" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R33" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T33" s="38"/>
       <c r="U33" s="39"/>
@@ -4830,31 +5157,31 @@
     </row>
     <row r="34" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="F34" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="I34" s="42" t="s">
-        <v>244</v>
+        <v>347</v>
       </c>
       <c r="J34" s="38" t="s">
         <v>52</v>
@@ -4868,19 +5195,19 @@
         <v>52</v>
       </c>
       <c r="O34" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R34" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S34" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P34" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q34" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R34" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S34" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T34" s="38"/>
       <c r="U34" s="39"/>
@@ -4889,33 +5216,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="F35" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>52</v>
@@ -4929,19 +5256,19 @@
         <v>52</v>
       </c>
       <c r="O35" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R35" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S35" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P35" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q35" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R35" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S35" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T35" s="38"/>
       <c r="U35" s="39"/>
@@ -4950,33 +5277,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>81</v>
+        <v>297</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="F36" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>250</v>
+        <v>353</v>
       </c>
       <c r="J36" s="38" t="s">
         <v>52</v>
@@ -4990,19 +5317,19 @@
         <v>52</v>
       </c>
       <c r="O36" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R36" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P36" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q36" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R36" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S36" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T36" s="38"/>
       <c r="U36" s="39"/>
@@ -5011,33 +5338,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="35">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="F37" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>252</v>
+        <v>355</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="J37" s="38" t="s">
         <v>52</v>
@@ -5051,19 +5378,19 @@
         <v>52</v>
       </c>
       <c r="O37" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R37" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q37" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R37" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S37" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T37" s="38"/>
       <c r="U37" s="39"/>
@@ -5072,33 +5399,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="F38" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>254</v>
+        <v>357</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>255</v>
+        <v>358</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>256</v>
+        <v>359</v>
       </c>
       <c r="J38" s="38" t="s">
         <v>52</v>
@@ -5112,19 +5439,19 @@
         <v>52</v>
       </c>
       <c r="O38" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R38" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S38" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P38" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q38" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R38" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S38" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T38" s="38"/>
       <c r="U38" s="39"/>
@@ -5133,33 +5460,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="F39" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>258</v>
+        <v>361</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="J39" s="38" t="s">
         <v>52</v>
@@ -5173,19 +5500,19 @@
         <v>52</v>
       </c>
       <c r="O39" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q39" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S39" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P39" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q39" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R39" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S39" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="39"/>
@@ -5194,95 +5521,131 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="35">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="42"/>
+        <v>306</v>
+      </c>
+      <c r="F40" s="37">
+        <v>45908</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>365</v>
+      </c>
       <c r="J40" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="K40" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="L40" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O40" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P40" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q40" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="T40" s="38"/>
       <c r="U40" s="39"/>
       <c r="V40" s="40"/>
       <c r="W40" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35">
-        <v>376</v>
+        <v>152</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="42"/>
+        <v>122</v>
+      </c>
+      <c r="F41" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>216</v>
+      </c>
       <c r="J41" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="K41" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="L41" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R41" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="T41" s="38"/>
       <c r="U41" s="39"/>
       <c r="V41" s="40"/>
       <c r="W41" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
-        <v>448</v>
+        <v>154</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>34</v>
@@ -5291,45 +5654,59 @@
         <v>46</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F42" s="37">
         <v>45907</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="J42" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
+      <c r="M42" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N42" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q42" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R42" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S42" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
       <c r="V42" s="40"/>
       <c r="W42" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
-        <v>449</v>
+        <v>155</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>34</v>
@@ -5338,92 +5715,120 @@
         <v>46</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F43" s="37">
         <v>45907</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="J43" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K43" s="38"/>
       <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
+      <c r="M43" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P43" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R43" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S43" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
       <c r="V43" s="40"/>
       <c r="W43" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35">
-        <v>452</v>
+        <v>156</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F44" s="37">
         <v>45907</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="I44" s="42" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="J44" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="M44" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R44" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S44" s="38" t="s">
+        <v>182</v>
+      </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
       <c r="V44" s="40"/>
       <c r="W44" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35">
-        <v>461</v>
+        <v>159</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>34</v>
@@ -5432,22 +5837,22 @@
         <v>46</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="F45" s="37">
         <v>45907</v>
       </c>
-      <c r="G45" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>268</v>
+      <c r="G45" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>52</v>
@@ -5461,54 +5866,54 @@
         <v>52</v>
       </c>
       <c r="O45" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R45" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S45" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="P45" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q45" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R45" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S45" s="38" t="s">
-        <v>183</v>
-      </c>
       <c r="T45" s="38"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35" t="s">
+      <c r="U45" s="39"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35">
-        <v>466</v>
+        <v>160</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>154</v>
+        <v>74</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="F46" s="37">
         <v>45907</v>
       </c>
-      <c r="G46" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="I46" s="38" t="s">
-        <v>211</v>
+      <c r="G46" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>231</v>
       </c>
       <c r="J46" s="38" t="s">
         <v>52</v>
@@ -5522,30 +5927,30 @@
         <v>52</v>
       </c>
       <c r="O46" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P46" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R46" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S46" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="P46" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q46" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R46" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S46" s="38" t="s">
-        <v>183</v>
-      </c>
       <c r="T46" s="38"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35" t="s">
+      <c r="U46" s="39"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35">
-        <v>468</v>
+        <v>161</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>34</v>
@@ -5554,22 +5959,22 @@
         <v>46</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="F47" s="37">
         <v>45907</v>
       </c>
-      <c r="G47" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="H47" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>271</v>
+      <c r="G47" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>234</v>
       </c>
       <c r="J47" s="38" t="s">
         <v>52</v>
@@ -5583,54 +5988,54 @@
         <v>52</v>
       </c>
       <c r="O47" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P47" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R47" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S47" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="P47" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q47" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R47" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S47" s="38" t="s">
-        <v>183</v>
-      </c>
       <c r="T47" s="38"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35" t="s">
+      <c r="U47" s="39"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
-        <v>473</v>
+        <v>162</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="F48" s="37">
         <v>45907</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I48" s="42" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="J48" s="38" t="s">
         <v>52</v>
@@ -5644,19 +6049,19 @@
         <v>52</v>
       </c>
       <c r="O48" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P48" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q48" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R48" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S48" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P48" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q48" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R48" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S48" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T48" s="38"/>
       <c r="U48" s="39"/>
@@ -5665,9 +6070,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35">
-        <v>475</v>
+        <v>163</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>34</v>
@@ -5676,22 +6081,22 @@
         <v>46</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="F49" s="37">
         <v>45907</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="J49" s="38" t="s">
         <v>52</v>
@@ -5705,19 +6110,19 @@
         <v>52</v>
       </c>
       <c r="O49" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q49" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R49" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S49" s="38" t="s">
         <v>182</v>
-      </c>
-      <c r="P49" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q49" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R49" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S49" s="38" t="s">
-        <v>183</v>
       </c>
       <c r="T49" s="38"/>
       <c r="U49" s="39"/>
@@ -5726,407 +6131,1117 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="9"/>
-    </row>
-    <row r="51" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="9"/>
-    </row>
-    <row r="52" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="9"/>
-    </row>
-    <row r="53" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="9"/>
-    </row>
-    <row r="54" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="9"/>
-    </row>
-    <row r="55" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="9"/>
-    </row>
-    <row r="56" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="9"/>
-    </row>
-    <row r="57" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="9"/>
-    </row>
-    <row r="58" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="9"/>
-    </row>
-    <row r="59" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="9"/>
-    </row>
-    <row r="60" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="9"/>
-    </row>
-    <row r="61" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="9"/>
-    </row>
-    <row r="62" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="9"/>
-    </row>
-    <row r="63" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="9"/>
-    </row>
-    <row r="64" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="9"/>
-    </row>
-    <row r="65" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="9"/>
-    </row>
-    <row r="66" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="9"/>
-    </row>
-    <row r="67" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="9"/>
-    </row>
-    <row r="68" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="9"/>
-    </row>
-    <row r="69" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="9"/>
-    </row>
-    <row r="70" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="35">
+        <v>164</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P50" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q50" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R50" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T50" s="38"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="35">
+        <v>165</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="J51" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O51" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P51" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q51" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R51" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S51" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T51" s="38"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="35">
+        <v>166</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P52" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q52" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R52" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S52" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T52" s="38"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="35">
+        <v>167</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="I53" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="J53" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N53" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O53" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P53" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q53" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R53" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S53" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T53" s="38"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="35">
+        <v>168</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G54" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N54" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P54" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q54" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R54" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S54" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T54" s="38"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="35">
+        <v>169</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="I55" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N55" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O55" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P55" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q55" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R55" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S55" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T55" s="38"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="35">
+        <v>191</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K56" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="L56" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+      <c r="T56" s="38"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="35">
+        <v>376</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K57" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="L57" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="35">
+        <v>448</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="I58" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="35">
+        <v>449</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="35">
+        <v>452</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I60" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="J60" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="35">
+        <v>461</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N61" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P61" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q61" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R61" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S61" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T61" s="38"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="35">
+        <v>462</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" s="37">
+        <v>45908</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="I62" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N62" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O62" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P62" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q62" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R62" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S62" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T62" s="38"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="35">
+        <v>466</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F63" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G63" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I63" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N63" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O63" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P63" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q63" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R63" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S63" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T63" s="38"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="35">
+        <v>468</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N64" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O64" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P64" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q64" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R64" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S64" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T64" s="38"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="35">
+        <v>471</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F65" s="37">
+        <v>45908</v>
+      </c>
+      <c r="G65" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="H65" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="I65" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="35">
+        <v>472</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66" s="37">
+        <v>45908</v>
+      </c>
+      <c r="G66" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="38"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="35">
+        <v>473</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G67" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H67" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N67" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O67" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P67" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q67" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R67" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S67" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T67" s="38"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="35">
+        <v>474</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="37">
+        <v>45908</v>
+      </c>
+      <c r="G68" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="H68" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N68" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O68" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P68" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q68" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R68" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S68" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T68" s="38"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="35">
+        <v>475</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="I69" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N69" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O69" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="P69" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q69" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R69" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S69" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="T69" s="38"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -6146,7 +7261,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="9"/>
     </row>
-    <row r="71" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -6166,7 +7281,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="9"/>
     </row>
-    <row r="72" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -6186,7 +7301,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="9"/>
     </row>
-    <row r="73" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -6206,7 +7321,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="9"/>
     </row>
-    <row r="74" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -6226,7 +7341,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="9"/>
     </row>
-    <row r="75" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -6246,7 +7361,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="9"/>
     </row>
-    <row r="76" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -6266,7 +7381,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="9"/>
     </row>
-    <row r="77" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -6286,7 +7401,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="9"/>
     </row>
-    <row r="78" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -6306,7 +7421,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="9"/>
     </row>
-    <row r="79" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -6326,7 +7441,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="9"/>
     </row>
-    <row r="80" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -9743,7 +10858,10 @@
     <row r="608" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A9:W49"/>
+  <autoFilter ref="A9:W69"/>
+  <sortState ref="A10:W69">
+    <sortCondition ref="A10:A69"/>
+  </sortState>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -9759,12 +10877,12 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J49 M10:N49 P10:R49</xm:sqref>
+          <xm:sqref>P10:R49 M10:N49 J10:J49 P62:R62 M62:N62 J62 P68:R68 M68:N68 J68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
@@ -9776,7 +10894,25 @@
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K49</xm:sqref>
+          <xm:sqref>K10:K49 K62 K68</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (3).xlsx]LISTA VALORI'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K50:K61 K63:K67 K69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (3).xlsx]Sheet1'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>T50:T69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (3).xlsx]Sheet1'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>M69:N69 P69:R69 M50:N61 J50:J61 P50:R61 P63:R67 M63:N67 J63:J67 J69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12027,6 +13163,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12284,7 +13432,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12293,19 +13441,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12324,27 +13477,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="363">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -740,20 +741,6 @@
     <t>471, 472</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT19_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>28,36,44,53,55,56,57,59,60,61,62, 466, 473</t>
   </si>
   <si>
@@ -910,15 +897,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.09e97690a4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-09-07T14:52:47Z</t>
-  </si>
-  <si>
-    <t>482c27194377ce2898ebdcb3d0798a93</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.9adac56c3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-09-07T14:59:33Z</t>
   </si>
   <si>
@@ -1088,15 +1066,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.220dbc28bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-09-07T15:57:33Z</t>
-  </si>
-  <si>
-    <t>f841e09c0fa070a052f232dcd5aa61cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8e78eda76a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Tipo di referti non gestita</t>
@@ -1235,13 +1204,6 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 26" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT27_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.34b1c44d5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -1413,13 +1375,13 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7396c05cf3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-09-08T15:35:51Z</t>
-  </si>
-  <si>
-    <t>042336bf5ec25a012c5e9efdf2ccf612</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.943b74a8a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAD_TIMEOUT</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2016,9 +1978,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2043,6 +2002,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2131,12 +2096,43 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Istruzioni Compilazione"/>
+      <sheetName val="Prerequisiti"/>
+      <sheetName val="TestCases"/>
       <sheetName val="LISTA VALORI"/>
+      <sheetName val="Summary"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Istruzioni Compilazione"/>
+      <sheetName val="Prerequisiti"/>
+      <sheetName val="TestCases"/>
+      <sheetName val="LISTA VALORI"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2392,7 +2388,7 @@
     </row>
     <row r="5" spans="1:1" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
@@ -3506,13 +3502,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W609"/>
+  <dimension ref="A1:W606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3554,12 +3550,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="49"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3580,14 +3576,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="50"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3608,12 +3604,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="50"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="49"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3635,12 +3631,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="50"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="49"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3661,8 +3657,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3776,10 +3772,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -3817,13 +3813,13 @@
         <v>45907</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>52</v>
@@ -3844,7 +3840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35">
         <v>28</v>
       </c>
@@ -3885,18 +3881,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>47</v>
+        <v>360</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>43</v>
@@ -3928,19 +3924,19 @@
     </row>
     <row r="13" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -3969,16 +3965,16 @@
     </row>
     <row r="14" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>49</v>
@@ -4010,54 +4006,40 @@
     </row>
     <row r="15" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>51</v>
+        <v>361</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="42"/>
       <c r="J15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="38"/>
+        <v>95</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="L15" s="38"/>
-      <c r="M15" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="P15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>178</v>
-      </c>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
       <c r="T15" s="38"/>
-      <c r="U15" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="U15" s="39"/>
       <c r="V15" s="40"/>
       <c r="W15" s="38" t="s">
         <v>44</v>
@@ -4065,7 +4047,7 @@
     </row>
     <row r="16" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>34</v>
@@ -4074,45 +4056,31 @@
         <v>46</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="42"/>
       <c r="J16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="38"/>
+        <v>95</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="L16" s="38"/>
-      <c r="M16" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="P16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" s="38" t="s">
-        <v>178</v>
-      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
       <c r="T16" s="38"/>
-      <c r="U16" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="U16" s="39"/>
       <c r="V16" s="40"/>
       <c r="W16" s="38" t="s">
         <v>44</v>
@@ -4120,7 +4088,7 @@
     </row>
     <row r="17" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>34</v>
@@ -4129,23 +4097,15 @@
         <v>35</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="37">
-        <v>45907</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>180</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="38" t="s">
         <v>52</v>
       </c>
@@ -4158,22 +4118,24 @@
         <v>52</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P17" s="38" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R17" s="38" t="s">
         <v>52</v>
       </c>
       <c r="S17" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="T17" s="38"/>
-      <c r="U17" s="39"/>
+      <c r="U17" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="V17" s="40"/>
       <c r="W17" s="38" t="s">
         <v>44</v>
@@ -4181,32 +4143,24 @@
     </row>
     <row r="18" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="37">
-        <v>45907</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>183</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="38" t="s">
         <v>52</v>
       </c>
@@ -4219,22 +4173,24 @@
         <v>52</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R18" s="38" t="s">
         <v>52</v>
       </c>
       <c r="S18" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="T18" s="38"/>
-      <c r="U18" s="39"/>
+      <c r="U18" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="V18" s="40"/>
       <c r="W18" s="38" t="s">
         <v>44</v>
@@ -4242,32 +4198,24 @@
     </row>
     <row r="19" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="37">
-        <v>45907</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>187</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="38" t="s">
         <v>52</v>
       </c>
@@ -4280,22 +4228,24 @@
         <v>52</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P19" s="38" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="R19" s="38" t="s">
         <v>52</v>
       </c>
       <c r="S19" s="38" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
+      <c r="U19" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="V19" s="40"/>
       <c r="W19" s="38" t="s">
         <v>44</v>
@@ -4303,7 +4253,7 @@
     </row>
     <row r="20" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>34</v>
@@ -4312,22 +4262,22 @@
         <v>35</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="F20" s="37">
         <v>45907</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>185</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="J20" s="38" t="s">
         <v>52</v>
@@ -4341,7 +4291,7 @@
         <v>52</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P20" s="38" t="s">
         <v>95</v>
@@ -4353,7 +4303,7 @@
         <v>52</v>
       </c>
       <c r="S20" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
@@ -4364,7 +4314,7 @@
     </row>
     <row r="21" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="35">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>34</v>
@@ -4373,22 +4323,22 @@
         <v>35</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F21" s="37">
         <v>45907</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>193</v>
+      <c r="G21" s="59" t="s">
+        <v>181</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>52</v>
@@ -4402,7 +4352,7 @@
         <v>52</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>95</v>
@@ -4414,7 +4364,7 @@
         <v>52</v>
       </c>
       <c r="S21" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -4425,7 +4375,7 @@
     </row>
     <row r="22" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="35">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>34</v>
@@ -4434,22 +4384,22 @@
         <v>35</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F22" s="37">
         <v>45907</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="J22" s="38" t="s">
         <v>52</v>
@@ -4463,7 +4413,7 @@
         <v>52</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>95</v>
@@ -4475,7 +4425,7 @@
         <v>52</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
@@ -4486,7 +4436,7 @@
     </row>
     <row r="23" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>34</v>
@@ -4495,22 +4445,22 @@
         <v>35</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F23" s="37">
         <v>45907</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>52</v>
@@ -4524,7 +4474,7 @@
         <v>52</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>95</v>
@@ -4536,7 +4486,7 @@
         <v>52</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -4547,7 +4497,7 @@
     </row>
     <row r="24" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>34</v>
@@ -4556,22 +4506,22 @@
         <v>35</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F24" s="37">
         <v>45907</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="J24" s="38" t="s">
         <v>52</v>
@@ -4585,7 +4535,7 @@
         <v>52</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P24" s="38" t="s">
         <v>95</v>
@@ -4597,7 +4547,7 @@
         <v>52</v>
       </c>
       <c r="S24" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T24" s="38"/>
       <c r="U24" s="39"/>
@@ -4608,31 +4558,31 @@
     </row>
     <row r="25" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>276</v>
+        <v>63</v>
       </c>
       <c r="F25" s="37">
-        <v>45908</v>
+        <v>45907</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>317</v>
+        <v>192</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>316</v>
+        <v>193</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>52</v>
@@ -4646,7 +4596,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P25" s="38" t="s">
         <v>95</v>
@@ -4658,7 +4608,7 @@
         <v>52</v>
       </c>
       <c r="S25" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T25" s="38"/>
       <c r="U25" s="39"/>
@@ -4669,31 +4619,31 @@
     </row>
     <row r="26" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>278</v>
+        <v>65</v>
       </c>
       <c r="F26" s="37">
-        <v>45908</v>
+        <v>45907</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="J26" s="38" t="s">
         <v>52</v>
@@ -4707,7 +4657,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P26" s="38" t="s">
         <v>95</v>
@@ -4719,7 +4669,7 @@
         <v>52</v>
       </c>
       <c r="S26" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T26" s="38"/>
       <c r="U26" s="39"/>
@@ -4730,31 +4680,31 @@
     </row>
     <row r="27" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="F27" s="37">
-        <v>45908</v>
+        <v>45907</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>325</v>
+        <v>199</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>324</v>
+        <v>200</v>
       </c>
       <c r="J27" s="38" t="s">
         <v>52</v>
@@ -4768,7 +4718,7 @@
         <v>52</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>95</v>
@@ -4780,7 +4730,7 @@
         <v>52</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
@@ -4791,7 +4741,7 @@
     </row>
     <row r="28" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>34</v>
@@ -4800,22 +4750,22 @@
         <v>38</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="F28" s="37">
         <v>45908</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J28" s="38" t="s">
         <v>52</v>
@@ -4829,7 +4779,7 @@
         <v>52</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>95</v>
@@ -4841,7 +4791,7 @@
         <v>52</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39"/>
@@ -4852,7 +4802,7 @@
     </row>
     <row r="29" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>34</v>
@@ -4861,22 +4811,22 @@
         <v>38</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="F29" s="37">
         <v>45908</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="J29" s="38" t="s">
         <v>52</v>
@@ -4890,7 +4840,7 @@
         <v>52</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>95</v>
@@ -4902,7 +4852,7 @@
         <v>52</v>
       </c>
       <c r="S29" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39"/>
@@ -4913,7 +4863,7 @@
     </row>
     <row r="30" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="35">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>34</v>
@@ -4922,22 +4872,22 @@
         <v>38</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="F30" s="37">
         <v>45908</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="J30" s="38" t="s">
         <v>52</v>
@@ -4951,7 +4901,7 @@
         <v>52</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P30" s="38" t="s">
         <v>95</v>
@@ -4963,7 +4913,7 @@
         <v>52</v>
       </c>
       <c r="S30" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T30" s="38"/>
       <c r="U30" s="39"/>
@@ -4974,7 +4924,7 @@
     </row>
     <row r="31" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="35">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>34</v>
@@ -4983,22 +4933,22 @@
         <v>38</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="F31" s="37">
         <v>45908</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="J31" s="38" t="s">
         <v>52</v>
@@ -5012,7 +4962,7 @@
         <v>52</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>95</v>
@@ -5024,7 +4974,7 @@
         <v>52</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39"/>
@@ -5035,7 +4985,7 @@
     </row>
     <row r="32" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>34</v>
@@ -5044,22 +4994,22 @@
         <v>38</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F32" s="37">
         <v>45908</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="J32" s="38" t="s">
         <v>52</v>
@@ -5073,7 +5023,7 @@
         <v>52</v>
       </c>
       <c r="O32" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P32" s="38" t="s">
         <v>95</v>
@@ -5085,7 +5035,7 @@
         <v>52</v>
       </c>
       <c r="S32" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T32" s="38"/>
       <c r="U32" s="39"/>
@@ -5096,7 +5046,7 @@
     </row>
     <row r="33" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="35">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>34</v>
@@ -5105,22 +5055,22 @@
         <v>38</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F33" s="37">
         <v>45908</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="I33" s="42" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="J33" s="38" t="s">
         <v>52</v>
@@ -5134,7 +5084,7 @@
         <v>52</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P33" s="38" t="s">
         <v>95</v>
@@ -5146,7 +5096,7 @@
         <v>52</v>
       </c>
       <c r="S33" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T33" s="38"/>
       <c r="U33" s="39"/>
@@ -5157,7 +5107,7 @@
     </row>
     <row r="34" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>34</v>
@@ -5166,22 +5116,22 @@
         <v>38</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F34" s="37">
         <v>45908</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="I34" s="42" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="J34" s="38" t="s">
         <v>52</v>
@@ -5195,7 +5145,7 @@
         <v>52</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P34" s="38" t="s">
         <v>95</v>
@@ -5207,7 +5157,7 @@
         <v>52</v>
       </c>
       <c r="S34" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T34" s="38"/>
       <c r="U34" s="39"/>
@@ -5218,7 +5168,7 @@
     </row>
     <row r="35" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>34</v>
@@ -5227,22 +5177,22 @@
         <v>38</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F35" s="37">
         <v>45908</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>52</v>
@@ -5256,7 +5206,7 @@
         <v>52</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P35" s="38" t="s">
         <v>95</v>
@@ -5268,7 +5218,7 @@
         <v>52</v>
       </c>
       <c r="S35" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T35" s="38"/>
       <c r="U35" s="39"/>
@@ -5279,7 +5229,7 @@
     </row>
     <row r="36" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="35">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>34</v>
@@ -5288,22 +5238,22 @@
         <v>38</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F36" s="37">
         <v>45908</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="J36" s="38" t="s">
         <v>52</v>
@@ -5317,7 +5267,7 @@
         <v>52</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P36" s="38" t="s">
         <v>95</v>
@@ -5329,7 +5279,7 @@
         <v>52</v>
       </c>
       <c r="S36" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T36" s="38"/>
       <c r="U36" s="39"/>
@@ -5340,7 +5290,7 @@
     </row>
     <row r="37" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="35">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>34</v>
@@ -5349,22 +5299,22 @@
         <v>38</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F37" s="37">
         <v>45908</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="J37" s="38" t="s">
         <v>52</v>
@@ -5378,7 +5328,7 @@
         <v>52</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P37" s="38" t="s">
         <v>95</v>
@@ -5390,7 +5340,7 @@
         <v>52</v>
       </c>
       <c r="S37" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T37" s="38"/>
       <c r="U37" s="39"/>
@@ -5401,7 +5351,7 @@
     </row>
     <row r="38" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>34</v>
@@ -5410,22 +5360,22 @@
         <v>38</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F38" s="37">
         <v>45908</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="J38" s="38" t="s">
         <v>52</v>
@@ -5439,7 +5389,7 @@
         <v>52</v>
       </c>
       <c r="O38" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P38" s="38" t="s">
         <v>95</v>
@@ -5451,7 +5401,7 @@
         <v>52</v>
       </c>
       <c r="S38" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T38" s="38"/>
       <c r="U38" s="39"/>
@@ -5462,7 +5412,7 @@
     </row>
     <row r="39" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="35">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>34</v>
@@ -5471,22 +5421,22 @@
         <v>38</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F39" s="37">
         <v>45908</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="J39" s="38" t="s">
         <v>52</v>
@@ -5500,7 +5450,7 @@
         <v>52</v>
       </c>
       <c r="O39" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P39" s="38" t="s">
         <v>95</v>
@@ -5512,7 +5462,7 @@
         <v>52</v>
       </c>
       <c r="S39" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="39"/>
@@ -5523,7 +5473,7 @@
     </row>
     <row r="40" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="35">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>34</v>
@@ -5532,22 +5482,22 @@
         <v>38</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F40" s="37">
         <v>45908</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="J40" s="38" t="s">
         <v>52</v>
@@ -5561,7 +5511,7 @@
         <v>52</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P40" s="38" t="s">
         <v>95</v>
@@ -5573,7 +5523,7 @@
         <v>52</v>
       </c>
       <c r="S40" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T40" s="38"/>
       <c r="U40" s="39"/>
@@ -5584,31 +5534,31 @@
     </row>
     <row r="41" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="35">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="F41" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>214</v>
+        <v>345</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>215</v>
+        <v>346</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="J41" s="38" t="s">
         <v>52</v>
@@ -5622,7 +5572,7 @@
         <v>52</v>
       </c>
       <c r="O41" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P41" s="38" t="s">
         <v>95</v>
@@ -5634,7 +5584,7 @@
         <v>52</v>
       </c>
       <c r="S41" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T41" s="38"/>
       <c r="U41" s="39"/>
@@ -5645,31 +5595,31 @@
     </row>
     <row r="42" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="35">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="F42" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>219</v>
+        <v>350</v>
       </c>
       <c r="J42" s="38" t="s">
         <v>52</v>
@@ -5683,7 +5633,7 @@
         <v>52</v>
       </c>
       <c r="O42" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P42" s="38" t="s">
         <v>95</v>
@@ -5695,7 +5645,7 @@
         <v>52</v>
       </c>
       <c r="S42" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
@@ -5706,31 +5656,31 @@
     </row>
     <row r="43" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="35">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>70</v>
+        <v>295</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="F43" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="J43" s="38" t="s">
         <v>52</v>
@@ -5744,7 +5694,7 @@
         <v>52</v>
       </c>
       <c r="O43" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P43" s="38" t="s">
         <v>95</v>
@@ -5756,7 +5706,7 @@
         <v>52</v>
       </c>
       <c r="S43" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
@@ -5767,7 +5717,7 @@
     </row>
     <row r="44" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="35">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>34</v>
@@ -5776,22 +5726,22 @@
         <v>46</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F44" s="37">
         <v>45907</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="I44" s="42" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="J44" s="38" t="s">
         <v>52</v>
@@ -5805,7 +5755,7 @@
         <v>52</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>95</v>
@@ -5817,7 +5767,7 @@
         <v>52</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
@@ -5828,7 +5778,7 @@
     </row>
     <row r="45" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="35">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>34</v>
@@ -5837,22 +5787,22 @@
         <v>46</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="F45" s="37">
         <v>45907</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>52</v>
@@ -5866,7 +5816,7 @@
         <v>52</v>
       </c>
       <c r="O45" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P45" s="38" t="s">
         <v>95</v>
@@ -5878,7 +5828,7 @@
         <v>52</v>
       </c>
       <c r="S45" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T45" s="38"/>
       <c r="U45" s="39"/>
@@ -5889,7 +5839,7 @@
     </row>
     <row r="46" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="35">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B46" s="35" t="s">
         <v>34</v>
@@ -5898,22 +5848,22 @@
         <v>46</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F46" s="37">
         <v>45907</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="J46" s="38" t="s">
         <v>52</v>
@@ -5927,7 +5877,7 @@
         <v>52</v>
       </c>
       <c r="O46" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P46" s="38" t="s">
         <v>95</v>
@@ -5939,7 +5889,7 @@
         <v>52</v>
       </c>
       <c r="S46" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T46" s="38"/>
       <c r="U46" s="39"/>
@@ -5950,7 +5900,7 @@
     </row>
     <row r="47" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="35">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>34</v>
@@ -5959,22 +5909,22 @@
         <v>46</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F47" s="37">
         <v>45907</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="J47" s="38" t="s">
         <v>52</v>
@@ -5988,7 +5938,7 @@
         <v>52</v>
       </c>
       <c r="O47" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P47" s="38" t="s">
         <v>95</v>
@@ -6000,7 +5950,7 @@
         <v>52</v>
       </c>
       <c r="S47" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T47" s="38"/>
       <c r="U47" s="39"/>
@@ -6011,7 +5961,7 @@
     </row>
     <row r="48" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="35">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>34</v>
@@ -6020,22 +5970,22 @@
         <v>46</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F48" s="37">
         <v>45907</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="I48" s="42" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="J48" s="38" t="s">
         <v>52</v>
@@ -6049,7 +5999,7 @@
         <v>52</v>
       </c>
       <c r="O48" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P48" s="38" t="s">
         <v>95</v>
@@ -6061,7 +6011,7 @@
         <v>52</v>
       </c>
       <c r="S48" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T48" s="38"/>
       <c r="U48" s="39"/>
@@ -6072,7 +6022,7 @@
     </row>
     <row r="49" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="35">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>34</v>
@@ -6081,22 +6031,22 @@
         <v>46</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F49" s="37">
         <v>45907</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="J49" s="38" t="s">
         <v>52</v>
@@ -6110,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P49" s="38" t="s">
         <v>95</v>
@@ -6122,7 +6072,7 @@
         <v>52</v>
       </c>
       <c r="S49" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T49" s="38"/>
       <c r="U49" s="39"/>
@@ -6133,7 +6083,7 @@
     </row>
     <row r="50" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="35">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>34</v>
@@ -6142,22 +6092,22 @@
         <v>46</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F50" s="37">
         <v>45907</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="J50" s="38" t="s">
         <v>52</v>
@@ -6171,7 +6121,7 @@
         <v>52</v>
       </c>
       <c r="O50" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P50" s="38" t="s">
         <v>95</v>
@@ -6183,7 +6133,7 @@
         <v>52</v>
       </c>
       <c r="S50" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T50" s="38"/>
       <c r="U50" s="39"/>
@@ -6194,7 +6144,7 @@
     </row>
     <row r="51" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="35">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>34</v>
@@ -6203,22 +6153,22 @@
         <v>46</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F51" s="37">
         <v>45907</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J51" s="38" t="s">
         <v>52</v>
@@ -6232,7 +6182,7 @@
         <v>52</v>
       </c>
       <c r="O51" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P51" s="38" t="s">
         <v>95</v>
@@ -6244,7 +6194,7 @@
         <v>52</v>
       </c>
       <c r="S51" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T51" s="38"/>
       <c r="U51" s="39"/>
@@ -6255,7 +6205,7 @@
     </row>
     <row r="52" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="35">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>34</v>
@@ -6264,22 +6214,22 @@
         <v>46</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F52" s="37">
         <v>45907</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J52" s="38" t="s">
         <v>52</v>
@@ -6293,7 +6243,7 @@
         <v>52</v>
       </c>
       <c r="O52" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P52" s="38" t="s">
         <v>95</v>
@@ -6305,7 +6255,7 @@
         <v>52</v>
       </c>
       <c r="S52" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T52" s="38"/>
       <c r="U52" s="39"/>
@@ -6316,7 +6266,7 @@
     </row>
     <row r="53" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="35">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>34</v>
@@ -6325,22 +6275,22 @@
         <v>46</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F53" s="37">
         <v>45907</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>52</v>
@@ -6354,7 +6304,7 @@
         <v>52</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P53" s="38" t="s">
         <v>95</v>
@@ -6366,7 +6316,7 @@
         <v>52</v>
       </c>
       <c r="S53" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T53" s="38"/>
       <c r="U53" s="39"/>
@@ -6377,7 +6327,7 @@
     </row>
     <row r="54" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="35">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>34</v>
@@ -6386,22 +6336,22 @@
         <v>46</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F54" s="37">
         <v>45907</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="J54" s="38" t="s">
         <v>52</v>
@@ -6415,7 +6365,7 @@
         <v>52</v>
       </c>
       <c r="O54" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P54" s="38" t="s">
         <v>95</v>
@@ -6427,7 +6377,7 @@
         <v>52</v>
       </c>
       <c r="S54" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T54" s="38"/>
       <c r="U54" s="39"/>
@@ -6438,7 +6388,7 @@
     </row>
     <row r="55" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>34</v>
@@ -6447,22 +6397,22 @@
         <v>46</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F55" s="37">
         <v>45907</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="J55" s="38" t="s">
         <v>52</v>
@@ -6476,7 +6426,7 @@
         <v>52</v>
       </c>
       <c r="O55" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P55" s="38" t="s">
         <v>95</v>
@@ -6488,7 +6438,7 @@
         <v>52</v>
       </c>
       <c r="S55" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T55" s="38"/>
       <c r="U55" s="39"/>
@@ -6499,93 +6449,129 @@
     </row>
     <row r="56" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B56" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="42"/>
+        <v>119</v>
+      </c>
+      <c r="F56" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="42" t="s">
+        <v>245</v>
+      </c>
       <c r="J56" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="K56" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="L56" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N56" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P56" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q56" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R56" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S56" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="T56" s="38"/>
       <c r="U56" s="39"/>
       <c r="V56" s="40"/>
       <c r="W56" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="B57" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="42"/>
+        <v>120</v>
+      </c>
+      <c r="F57" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>248</v>
+      </c>
       <c r="J57" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="K57" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="L57" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N57" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P57" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q57" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R57" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S57" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="T57" s="38"/>
       <c r="U57" s="39"/>
       <c r="V57" s="40"/>
       <c r="W57" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35">
-        <v>448</v>
+        <v>169</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>34</v>
@@ -6594,75 +6580,85 @@
         <v>46</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F58" s="37">
         <v>45907</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K58" s="38"/>
       <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
+      <c r="M58" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N58" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O58" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P58" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q58" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R58" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S58" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="T58" s="38"/>
       <c r="U58" s="39"/>
       <c r="V58" s="40"/>
       <c r="W58" s="38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="35">
-        <v>449</v>
+        <v>191</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="37">
-        <v>45907</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="L59" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="J59" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
       <c r="M59" s="38"/>
       <c r="N59" s="38"/>
       <c r="O59" s="38"/>
@@ -6679,7 +6675,7 @@
     </row>
     <row r="60" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="35">
-        <v>452</v>
+        <v>376</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>34</v>
@@ -6688,28 +6684,24 @@
         <v>35</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="37">
-        <v>45907</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I60" s="42" t="s">
-        <v>207</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="42"/>
       <c r="J60" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
+        <v>95</v>
+      </c>
+      <c r="K60" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="L60" s="38" t="s">
+        <v>264</v>
+      </c>
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
       <c r="O60" s="38"/>
@@ -6726,7 +6718,7 @@
     </row>
     <row r="61" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>34</v>
@@ -6735,120 +6727,92 @@
         <v>46</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F61" s="37">
         <v>45907</v>
       </c>
-      <c r="G61" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="H61" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="I61" s="46" t="s">
-        <v>267</v>
+      <c r="G61" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="I61" s="42" t="s">
+        <v>254</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K61" s="38"/>
       <c r="L61" s="38"/>
-      <c r="M61" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="N61" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O61" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="P61" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q61" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R61" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S61" s="38" t="s">
-        <v>182</v>
-      </c>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
       <c r="T61" s="38"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35" t="s">
-        <v>44</v>
+      <c r="U61" s="39"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D62" s="35" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>308</v>
+        <v>140</v>
       </c>
       <c r="F62" s="37">
-        <v>45908</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="H62" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="I62" s="46" t="s">
-        <v>368</v>
+        <v>45907</v>
+      </c>
+      <c r="G62" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="42" t="s">
+        <v>257</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K62" s="38"/>
       <c r="L62" s="38"/>
-      <c r="M62" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="N62" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O62" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="P62" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q62" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R62" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S62" s="38" t="s">
-        <v>182</v>
-      </c>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
       <c r="T62" s="38"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35" t="s">
-        <v>44</v>
+      <c r="U62" s="39"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>34</v>
@@ -6857,59 +6821,45 @@
         <v>35</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>154</v>
+        <v>133</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="F63" s="37">
         <v>45907</v>
       </c>
-      <c r="G63" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="H63" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="I63" s="46" t="s">
-        <v>210</v>
+      <c r="G63" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="I63" s="42" t="s">
+        <v>203</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K63" s="38"/>
       <c r="L63" s="38"/>
-      <c r="M63" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="N63" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O63" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="P63" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q63" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R63" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S63" s="38" t="s">
-        <v>182</v>
-      </c>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+      <c r="R63" s="38"/>
+      <c r="S63" s="38"/>
       <c r="T63" s="38"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35" t="s">
-        <v>44</v>
+      <c r="U63" s="39"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="35">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>34</v>
@@ -6918,22 +6868,22 @@
         <v>46</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F64" s="37">
         <v>45907</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="I64" s="46" t="s">
-        <v>270</v>
+        <v>259</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>52</v>
@@ -6947,7 +6897,7 @@
         <v>52</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P64" s="38" t="s">
         <v>95</v>
@@ -6959,7 +6909,7 @@
         <v>52</v>
       </c>
       <c r="S64" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T64" s="38"/>
       <c r="U64" s="35"/>
@@ -6970,7 +6920,7 @@
     </row>
     <row r="65" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="35">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B65" s="35" t="s">
         <v>34</v>
@@ -6979,112 +6929,144 @@
         <v>38</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F65" s="37">
         <v>45908</v>
       </c>
-      <c r="G65" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="I65" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="J65" s="38"/>
+      <c r="G65" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="H65" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="J65" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="K65" s="38"/>
       <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
+      <c r="M65" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O65" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P65" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q65" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R65" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S65" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="T65" s="38"/>
-      <c r="U65" s="39"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="38" t="s">
-        <v>36</v>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="35">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>312</v>
+        <v>147</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="F66" s="37">
-        <v>45908</v>
-      </c>
-      <c r="G66" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="I66" s="37" t="s">
-        <v>371</v>
-      </c>
-      <c r="J66" s="38"/>
+        <v>45907</v>
+      </c>
+      <c r="G66" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="K66" s="38"/>
       <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
+      <c r="M66" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N66" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O66" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P66" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q66" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R66" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S66" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="T66" s="38"/>
-      <c r="U66" s="39"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="38" t="s">
-        <v>36</v>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="41" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F67" s="37">
         <v>45907</v>
       </c>
-      <c r="G67" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="I67" s="42" t="s">
-        <v>213</v>
+      <c r="G67" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="I67" s="45" t="s">
+        <v>263</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>52</v>
@@ -7098,7 +7080,7 @@
         <v>52</v>
       </c>
       <c r="O67" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P67" s="38" t="s">
         <v>95</v>
@@ -7110,18 +7092,18 @@
         <v>52</v>
       </c>
       <c r="S67" s="38" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="T67" s="38"/>
-      <c r="U67" s="39"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="38" t="s">
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>34</v>
@@ -7130,115 +7112,87 @@
         <v>38</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F68" s="37">
         <v>45908</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K68" s="38"/>
       <c r="L68" s="38"/>
-      <c r="M68" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="N68" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O68" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="P68" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q68" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R68" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S68" s="38" t="s">
-        <v>182</v>
-      </c>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
       <c r="T68" s="38"/>
       <c r="U68" s="39"/>
       <c r="V68" s="40"/>
       <c r="W68" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="35">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="F69" s="37">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>271</v>
+        <v>357</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="I69" s="42" t="s">
-        <v>273</v>
+        <v>359</v>
       </c>
       <c r="J69" s="38" t="s">
         <v>52</v>
       </c>
       <c r="K69" s="38"/>
       <c r="L69" s="38"/>
-      <c r="M69" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="N69" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O69" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="P69" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q69" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="R69" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="S69" s="38" t="s">
-        <v>182</v>
-      </c>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
       <c r="T69" s="38"/>
       <c r="U69" s="39"/>
       <c r="V69" s="40"/>
       <c r="W69" s="38" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -9542,64 +9496,13 @@
       <c r="W184" s="9"/>
     </row>
     <row r="185" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="7"/>
-      <c r="R185" s="7"/>
-      <c r="S185" s="7"/>
-      <c r="T185" s="7"/>
-      <c r="U185" s="8"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="9"/>
+      <c r="W185" s="7"/>
     </row>
     <row r="186" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="7"/>
-      <c r="R186" s="7"/>
-      <c r="S186" s="7"/>
-      <c r="T186" s="7"/>
-      <c r="U186" s="8"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="9"/>
+      <c r="W186" s="7"/>
     </row>
     <row r="187" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="7"/>
-      <c r="R187" s="7"/>
-      <c r="S187" s="7"/>
-      <c r="T187" s="7"/>
-      <c r="U187" s="8"/>
-      <c r="V187" s="2"/>
-      <c r="W187" s="9"/>
+      <c r="W187" s="7"/>
     </row>
     <row r="188" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W188" s="7"/>
@@ -10843,24 +10746,15 @@
     <row r="601" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W601" s="7"/>
     </row>
-    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W602" s="7"/>
-    </row>
-    <row r="603" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W603" s="7"/>
-    </row>
-    <row r="604" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W604" s="7"/>
-    </row>
+    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="605" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="606" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A9:W69"/>
-  <sortState ref="A10:W69">
-    <sortCondition ref="A10:A69"/>
+  <sortState ref="A10:W72">
+    <sortCondition ref="A10:A72"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
@@ -10877,12 +10771,12 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P10:R49 M10:N49 J10:J49 P62:R62 M62:N62 J62 P68:R68 M68:N68 J68</xm:sqref>
+          <xm:sqref>P10:R49 M10:N49 J10:J49 P62:R62 M62:N62 J62 P68:R68 M68:N68 J68 J65:J66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
@@ -10906,13 +10800,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (3).xlsx]Sheet1'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>T50:T69</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (3).xlsx]Sheet1'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>M69:N69 P69:R69 M50:N61 J50:J61 P50:R61 P63:R67 M63:N67 J63:J67 J69</xm:sqref>
+          <xm:sqref>T50:T69 M69:N69 P69:R69 M50:N61 J50:J61 P50:R61 P63:R67 M63:N67 J69 J63:J64 J67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11012,7 +10900,7 @@
         <v>105</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11026,7 +10914,7 @@
         <v>143</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11054,7 +10942,7 @@
         <v>158</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11110,7 +10998,7 @@
         <v>128</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -13163,18 +13051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -13432,6 +13308,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13442,23 +13330,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13477,6 +13348,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="378">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1382,6 +1381,54 @@
   </si>
   <si>
     <t>VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-09-08T15:35:51Z</t>
+  </si>
+  <si>
+    <t>042336bf5ec25a012c5e9efdf2ccf612</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.943b74a8a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-07T15:57:33Z</t>
+  </si>
+  <si>
+    <t>f841e09c0fa070a052f232dcd5aa61cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8e78eda76a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-07T14:52:47Z</t>
+  </si>
+  <si>
+    <t>482c27194377ce2898ebdcb3d0798a93</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.9adac56c3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1981,6 +2028,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2002,12 +2055,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2093,29 +2140,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Istruzioni Compilazione"/>
-      <sheetName val="Prerequisiti"/>
-      <sheetName val="TestCases"/>
-      <sheetName val="LISTA VALORI"/>
-      <sheetName val="Summary"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3504,11 +3528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W606"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3550,12 +3574,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="51"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3576,14 +3600,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="51"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3604,12 +3628,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3631,12 +3655,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="51"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3657,8 +3681,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4004,7 +4028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
         <v>39</v>
       </c>
@@ -4045,7 +4069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
         <v>40</v>
       </c>
@@ -4086,7 +4110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
         <v>44</v>
       </c>
@@ -4104,7 +4128,7 @@
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="58"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38" t="s">
         <v>52</v>
@@ -4141,7 +4165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
         <v>47</v>
       </c>
@@ -4158,7 +4182,7 @@
         <v>163</v>
       </c>
       <c r="F18" s="37"/>
-      <c r="G18" s="58"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="38" t="s">
@@ -4196,7 +4220,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
         <v>48</v>
       </c>
@@ -4273,7 +4297,7 @@
       <c r="G20" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="47" t="s">
         <v>185</v>
       </c>
       <c r="I20" s="42" t="s">
@@ -4331,7 +4355,7 @@
       <c r="F21" s="37">
         <v>45907</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="47" t="s">
         <v>181</v>
       </c>
       <c r="H21" s="37" t="s">
@@ -4556,7 +4580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35">
         <v>60</v>
       </c>
@@ -4617,7 +4641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="35">
         <v>61</v>
       </c>
@@ -4678,7 +4702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="35">
         <v>62</v>
       </c>
@@ -5105,7 +5129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35">
         <v>84</v>
       </c>
@@ -5288,7 +5312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="35">
         <v>87</v>
       </c>
@@ -6447,7 +6471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="35">
         <v>167</v>
       </c>
@@ -6508,7 +6532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="35">
         <v>168</v>
       </c>
@@ -6569,7 +6593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="35">
         <v>169</v>
       </c>
@@ -6716,7 +6740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35">
         <v>448</v>
       </c>
@@ -6763,7 +6787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="35">
         <v>449</v>
       </c>
@@ -6810,7 +6834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="35">
         <v>452</v>
       </c>
@@ -6979,7 +7003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="35">
         <v>466</v>
       </c>
@@ -7040,7 +7064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="35">
         <v>468</v>
       </c>
@@ -7101,7 +7125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="35">
         <v>471</v>
       </c>
@@ -7195,65 +7219,188 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="9"/>
-    </row>
-    <row r="71" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="9"/>
-    </row>
-    <row r="72" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="9"/>
+    <row r="70" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="35">
+        <v>473</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F70" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="H70" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="I70" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N70" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O70" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P70" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q70" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R70" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S70" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="T70" s="38"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="35">
+        <v>474</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="F71" s="37">
+        <v>45908</v>
+      </c>
+      <c r="G71" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="I71" s="42" t="s">
+        <v>371</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N71" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O71" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P71" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q71" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R71" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S71" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="T71" s="38"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="35">
+        <v>475</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="F72" s="37">
+        <v>45907</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>373</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N72" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O72" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="P72" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q72" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R72" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="S72" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="T72" s="38"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="38" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="73" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F73" s="6"/>
@@ -10771,7 +10918,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -10794,13 +10941,19 @@
           <x14:formula1>
             <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (3).xlsx]LISTA VALORI'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>K50:K61 K63:K67 K69</xm:sqref>
+          <xm:sqref>K50:K61 K63:K67 K69:K72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (3).xlsx]Sheet1'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>T50:T69 M69:N69 P69:R69 M50:N61 J50:J61 P50:R61 P63:R67 M63:N67 J69 J63:J64 J67</xm:sqref>
+          <xm:sqref>T50:T69 M69:N72 P69:R72 M50:N61 J50:J61 P50:R61 P63:R67 M63:N67 J67 J63:J64 J69:J72</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'C:\Users\Salvo\Downloads\[accreditamento-checklist_V8.2.6.1 (5).xlsx]Sheet1'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>T70:T72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13309,6 +13462,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -13318,15 +13480,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13349,6 +13502,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -13365,14 +13526,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111#ORIGINALSOFTSRLXX/ORIGINALSOFT_SRL/analist-fse/1.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -21,6 +21,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
@@ -785,15 +786,6 @@
     <t>subject_application_vendor:Originalsoft Srl</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.62d38d734d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4265c108f2bda9be4050ce4041a1e218</t>
-  </si>
-  <si>
-    <t>2025-09-07T12:29:00Z</t>
-  </si>
-  <si>
     <t>Server non disponibile</t>
   </si>
   <si>
@@ -878,15 +870,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.d759054a6d79c3e5f58c855b80ace1fb6198ac06e560c98933861a00877d036b.58f460fa08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-09-07T14:45:32Z</t>
-  </si>
-  <si>
-    <t>f7193e6319bd888e836320c044018eeb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.e004ac4cc1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-09-07T14:49:45Z</t>
   </si>
   <si>
@@ -1029,24 +1012,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9289d7dbba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-09-07T15:47:29Z</t>
-  </si>
-  <si>
-    <t>d8bbe09ed0b3ced6dafc26a791262992</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8dc885fd69^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-09-07T15:50:00Z</t>
-  </si>
-  <si>
-    <t>211998a700cf39892f59617709117084</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b023907da4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2025-09-07T15:52:35Z</t>
@@ -1212,15 +1177,6 @@
     <t>2025-09-08T13:38:36Z</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.a4afaff923^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>fbebed9a05cee24d398675b9ccf209ac</t>
-  </si>
-  <si>
-    <t>2025-09-08T13:39:17Z</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c7eb66b5d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -1363,15 +1319,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6f56f2d1c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-09-08T15:34:25Z</t>
-  </si>
-  <si>
-    <t>63e264def81ab6c7f7c6b38ec698a1c7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7396c05cf3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
@@ -1429,6 +1376,60 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.9adac56c3b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-13T09:18:15Z</t>
+  </si>
+  <si>
+    <t>7c62c6960a51ebc0e0461f6348a095a6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.6c8b2e513b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-13T09:35:12Z</t>
+  </si>
+  <si>
+    <t>10c588666563e86f17d196503493eaa7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.bde03c8591a6083479e6cc2b3503f6839b769531bd9ca853585758bb1b48607d.d02124803c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-13T09:47:21Z</t>
+  </si>
+  <si>
+    <t>15c8ecc101e784a05ad25478347fb782</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ffbc01bd54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-13T09:51:02Z</t>
+  </si>
+  <si>
+    <t>7d6a4d60ca2709cd9f8a5e8e0d351ace</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.7eea346459^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-13T09:54:32Z</t>
+  </si>
+  <si>
+    <t>c4d77a17a821dad2680d6a6f07e3eb09</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2d62934dbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-09-13T09:56:20Z</t>
+  </si>
+  <si>
+    <t>b6cec553bb5192c145b6a3641e1e9acf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.82b80d04fa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2140,6 +2141,29 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Istruzioni Compilazione"/>
+      <sheetName val="Prerequisiti"/>
+      <sheetName val="TestCases"/>
+      <sheetName val="LISTA VALORI"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3529,10 +3553,10 @@
   <dimension ref="A1:W606"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3834,16 +3858,16 @@
         <v>136</v>
       </c>
       <c r="F10" s="36">
-        <v>45907</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>170</v>
+        <v>45913</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>362</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>52</v>
@@ -3916,7 +3940,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E12" s="43" t="s">
         <v>43</v>
@@ -4039,7 +4063,7 @@
         <v>38</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>49</v>
@@ -4142,7 +4166,7 @@
         <v>52</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P17" s="38" t="s">
         <v>52</v>
@@ -4154,7 +4178,7 @@
         <v>52</v>
       </c>
       <c r="S17" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T17" s="38"/>
       <c r="U17" s="39" t="s">
@@ -4176,7 +4200,7 @@
         <v>38</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E18" s="43" t="s">
         <v>163</v>
@@ -4197,7 +4221,7 @@
         <v>52</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P18" s="38" t="s">
         <v>52</v>
@@ -4209,7 +4233,7 @@
         <v>52</v>
       </c>
       <c r="S18" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T18" s="38"/>
       <c r="U18" s="39" t="s">
@@ -4252,7 +4276,7 @@
         <v>52</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P19" s="38" t="s">
         <v>52</v>
@@ -4264,7 +4288,7 @@
         <v>52</v>
       </c>
       <c r="S19" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T19" s="38"/>
       <c r="U19" s="39" t="s">
@@ -4295,13 +4319,13 @@
         <v>45907</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H20" s="47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J20" s="38" t="s">
         <v>52</v>
@@ -4315,7 +4339,7 @@
         <v>52</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P20" s="38" t="s">
         <v>95</v>
@@ -4327,7 +4351,7 @@
         <v>52</v>
       </c>
       <c r="S20" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
@@ -4356,13 +4380,13 @@
         <v>45907</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J21" s="38" t="s">
         <v>52</v>
@@ -4376,7 +4400,7 @@
         <v>52</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P21" s="38" t="s">
         <v>95</v>
@@ -4388,7 +4412,7 @@
         <v>52</v>
       </c>
       <c r="S21" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
@@ -4417,13 +4441,13 @@
         <v>45907</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J22" s="38" t="s">
         <v>52</v>
@@ -4437,7 +4461,7 @@
         <v>52</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P22" s="38" t="s">
         <v>95</v>
@@ -4449,7 +4473,7 @@
         <v>52</v>
       </c>
       <c r="S22" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
@@ -4478,13 +4502,13 @@
         <v>45907</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J23" s="38" t="s">
         <v>52</v>
@@ -4498,7 +4522,7 @@
         <v>52</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P23" s="38" t="s">
         <v>95</v>
@@ -4510,7 +4534,7 @@
         <v>52</v>
       </c>
       <c r="S23" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T23" s="38"/>
       <c r="U23" s="39"/>
@@ -4539,13 +4563,13 @@
         <v>45907</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J24" s="38" t="s">
         <v>52</v>
@@ -4559,7 +4583,7 @@
         <v>52</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P24" s="38" t="s">
         <v>95</v>
@@ -4571,7 +4595,7 @@
         <v>52</v>
       </c>
       <c r="S24" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T24" s="38"/>
       <c r="U24" s="39"/>
@@ -4600,13 +4624,13 @@
         <v>45907</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>52</v>
@@ -4620,7 +4644,7 @@
         <v>52</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P25" s="38" t="s">
         <v>95</v>
@@ -4632,7 +4656,7 @@
         <v>52</v>
       </c>
       <c r="S25" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T25" s="38"/>
       <c r="U25" s="39"/>
@@ -4661,13 +4685,13 @@
         <v>45907</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J26" s="38" t="s">
         <v>52</v>
@@ -4681,7 +4705,7 @@
         <v>52</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P26" s="38" t="s">
         <v>95</v>
@@ -4693,7 +4717,7 @@
         <v>52</v>
       </c>
       <c r="S26" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T26" s="38"/>
       <c r="U26" s="39"/>
@@ -4722,13 +4746,13 @@
         <v>45907</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J27" s="38" t="s">
         <v>52</v>
@@ -4742,7 +4766,7 @@
         <v>52</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P27" s="38" t="s">
         <v>95</v>
@@ -4754,7 +4778,7 @@
         <v>52</v>
       </c>
       <c r="S27" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
@@ -4774,22 +4798,22 @@
         <v>38</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F28" s="37">
         <v>45908</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="J28" s="38" t="s">
         <v>52</v>
@@ -4803,7 +4827,7 @@
         <v>52</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P28" s="38" t="s">
         <v>95</v>
@@ -4815,7 +4839,7 @@
         <v>52</v>
       </c>
       <c r="S28" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T28" s="38"/>
       <c r="U28" s="39"/>
@@ -4835,22 +4859,22 @@
         <v>38</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F29" s="37">
         <v>45908</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="J29" s="38" t="s">
         <v>52</v>
@@ -4864,7 +4888,7 @@
         <v>52</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>95</v>
@@ -4876,7 +4900,7 @@
         <v>52</v>
       </c>
       <c r="S29" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T29" s="38"/>
       <c r="U29" s="39"/>
@@ -4896,22 +4920,22 @@
         <v>38</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F30" s="37">
         <v>45908</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="J30" s="38" t="s">
         <v>52</v>
@@ -4925,7 +4949,7 @@
         <v>52</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P30" s="38" t="s">
         <v>95</v>
@@ -4937,7 +4961,7 @@
         <v>52</v>
       </c>
       <c r="S30" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T30" s="38"/>
       <c r="U30" s="39"/>
@@ -4957,22 +4981,22 @@
         <v>38</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F31" s="37">
         <v>45908</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="J31" s="38" t="s">
         <v>52</v>
@@ -4986,7 +5010,7 @@
         <v>52</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>95</v>
@@ -4998,7 +5022,7 @@
         <v>52</v>
       </c>
       <c r="S31" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T31" s="38"/>
       <c r="U31" s="39"/>
@@ -5018,22 +5042,22 @@
         <v>38</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F32" s="37">
         <v>45908</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="J32" s="38" t="s">
         <v>52</v>
@@ -5047,7 +5071,7 @@
         <v>52</v>
       </c>
       <c r="O32" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P32" s="38" t="s">
         <v>95</v>
@@ -5059,7 +5083,7 @@
         <v>52</v>
       </c>
       <c r="S32" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T32" s="38"/>
       <c r="U32" s="39"/>
@@ -5079,22 +5103,22 @@
         <v>38</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F33" s="37">
         <v>45908</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="I33" s="42" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="J33" s="38" t="s">
         <v>52</v>
@@ -5108,7 +5132,7 @@
         <v>52</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P33" s="38" t="s">
         <v>95</v>
@@ -5120,7 +5144,7 @@
         <v>52</v>
       </c>
       <c r="S33" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T33" s="38"/>
       <c r="U33" s="39"/>
@@ -5140,22 +5164,22 @@
         <v>38</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F34" s="37">
         <v>45908</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="I34" s="42" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="J34" s="38" t="s">
         <v>52</v>
@@ -5169,7 +5193,7 @@
         <v>52</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P34" s="38" t="s">
         <v>95</v>
@@ -5181,7 +5205,7 @@
         <v>52</v>
       </c>
       <c r="S34" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T34" s="38"/>
       <c r="U34" s="39"/>
@@ -5201,22 +5225,22 @@
         <v>38</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F35" s="37">
         <v>45908</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="J35" s="38" t="s">
         <v>52</v>
@@ -5230,7 +5254,7 @@
         <v>52</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P35" s="38" t="s">
         <v>95</v>
@@ -5242,7 +5266,7 @@
         <v>52</v>
       </c>
       <c r="S35" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T35" s="38"/>
       <c r="U35" s="39"/>
@@ -5262,22 +5286,22 @@
         <v>38</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F36" s="37">
         <v>45908</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="J36" s="38" t="s">
         <v>52</v>
@@ -5291,7 +5315,7 @@
         <v>52</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P36" s="38" t="s">
         <v>95</v>
@@ -5303,7 +5327,7 @@
         <v>52</v>
       </c>
       <c r="S36" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T36" s="38"/>
       <c r="U36" s="39"/>
@@ -5323,22 +5347,22 @@
         <v>38</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F37" s="37">
         <v>45908</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="J37" s="38" t="s">
         <v>52</v>
@@ -5352,7 +5376,7 @@
         <v>52</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P37" s="38" t="s">
         <v>95</v>
@@ -5364,7 +5388,7 @@
         <v>52</v>
       </c>
       <c r="S37" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T37" s="38"/>
       <c r="U37" s="39"/>
@@ -5384,22 +5408,22 @@
         <v>38</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F38" s="37">
         <v>45908</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="J38" s="38" t="s">
         <v>52</v>
@@ -5413,7 +5437,7 @@
         <v>52</v>
       </c>
       <c r="O38" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P38" s="38" t="s">
         <v>95</v>
@@ -5425,7 +5449,7 @@
         <v>52</v>
       </c>
       <c r="S38" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T38" s="38"/>
       <c r="U38" s="39"/>
@@ -5445,22 +5469,22 @@
         <v>38</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F39" s="37">
         <v>45908</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="J39" s="38" t="s">
         <v>52</v>
@@ -5474,7 +5498,7 @@
         <v>52</v>
       </c>
       <c r="O39" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P39" s="38" t="s">
         <v>95</v>
@@ -5486,7 +5510,7 @@
         <v>52</v>
       </c>
       <c r="S39" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T39" s="38"/>
       <c r="U39" s="39"/>
@@ -5506,22 +5530,22 @@
         <v>38</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F40" s="37">
         <v>45908</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="J40" s="38" t="s">
         <v>52</v>
@@ -5535,7 +5559,7 @@
         <v>52</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P40" s="38" t="s">
         <v>95</v>
@@ -5547,7 +5571,7 @@
         <v>52</v>
       </c>
       <c r="S40" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T40" s="38"/>
       <c r="U40" s="39"/>
@@ -5567,22 +5591,22 @@
         <v>38</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F41" s="37">
         <v>45908</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="J41" s="38" t="s">
         <v>52</v>
@@ -5596,7 +5620,7 @@
         <v>52</v>
       </c>
       <c r="O41" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P41" s="38" t="s">
         <v>95</v>
@@ -5608,7 +5632,7 @@
         <v>52</v>
       </c>
       <c r="S41" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T41" s="38"/>
       <c r="U41" s="39"/>
@@ -5628,22 +5652,22 @@
         <v>38</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F42" s="37">
         <v>45908</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="J42" s="38" t="s">
         <v>52</v>
@@ -5657,7 +5681,7 @@
         <v>52</v>
       </c>
       <c r="O42" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P42" s="38" t="s">
         <v>95</v>
@@ -5669,7 +5693,7 @@
         <v>52</v>
       </c>
       <c r="S42" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
@@ -5689,22 +5713,22 @@
         <v>38</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F43" s="37">
         <v>45908</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I43" s="42" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="J43" s="38" t="s">
         <v>52</v>
@@ -5718,7 +5742,7 @@
         <v>52</v>
       </c>
       <c r="O43" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P43" s="38" t="s">
         <v>95</v>
@@ -5730,7 +5754,7 @@
         <v>52</v>
       </c>
       <c r="S43" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
@@ -5759,13 +5783,13 @@
         <v>45907</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I44" s="42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J44" s="38" t="s">
         <v>52</v>
@@ -5779,7 +5803,7 @@
         <v>52</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P44" s="38" t="s">
         <v>95</v>
@@ -5791,7 +5815,7 @@
         <v>52</v>
       </c>
       <c r="S44" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
@@ -5820,13 +5844,13 @@
         <v>45907</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J45" s="38" t="s">
         <v>52</v>
@@ -5840,7 +5864,7 @@
         <v>52</v>
       </c>
       <c r="O45" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P45" s="38" t="s">
         <v>95</v>
@@ -5852,7 +5876,7 @@
         <v>52</v>
       </c>
       <c r="S45" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T45" s="38"/>
       <c r="U45" s="39"/>
@@ -5881,13 +5905,13 @@
         <v>45907</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J46" s="38" t="s">
         <v>52</v>
@@ -5901,7 +5925,7 @@
         <v>52</v>
       </c>
       <c r="O46" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P46" s="38" t="s">
         <v>95</v>
@@ -5913,7 +5937,7 @@
         <v>52</v>
       </c>
       <c r="S46" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T46" s="38"/>
       <c r="U46" s="39"/>
@@ -5942,13 +5966,13 @@
         <v>45907</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J47" s="38" t="s">
         <v>52</v>
@@ -5962,7 +5986,7 @@
         <v>52</v>
       </c>
       <c r="O47" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P47" s="38" t="s">
         <v>95</v>
@@ -5974,7 +5998,7 @@
         <v>52</v>
       </c>
       <c r="S47" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T47" s="38"/>
       <c r="U47" s="39"/>
@@ -6003,13 +6027,13 @@
         <v>45907</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I48" s="42" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J48" s="38" t="s">
         <v>52</v>
@@ -6023,7 +6047,7 @@
         <v>52</v>
       </c>
       <c r="O48" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P48" s="38" t="s">
         <v>95</v>
@@ -6035,7 +6059,7 @@
         <v>52</v>
       </c>
       <c r="S48" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T48" s="38"/>
       <c r="U48" s="39"/>
@@ -6064,13 +6088,13 @@
         <v>45907</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J49" s="38" t="s">
         <v>52</v>
@@ -6084,7 +6108,7 @@
         <v>52</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P49" s="38" t="s">
         <v>95</v>
@@ -6096,7 +6120,7 @@
         <v>52</v>
       </c>
       <c r="S49" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T49" s="38"/>
       <c r="U49" s="39"/>
@@ -6125,13 +6149,13 @@
         <v>45907</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J50" s="38" t="s">
         <v>52</v>
@@ -6145,7 +6169,7 @@
         <v>52</v>
       </c>
       <c r="O50" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P50" s="38" t="s">
         <v>95</v>
@@ -6157,7 +6181,7 @@
         <v>52</v>
       </c>
       <c r="S50" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T50" s="38"/>
       <c r="U50" s="39"/>
@@ -6186,13 +6210,13 @@
         <v>45907</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J51" s="38" t="s">
         <v>52</v>
@@ -6206,7 +6230,7 @@
         <v>52</v>
       </c>
       <c r="O51" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P51" s="38" t="s">
         <v>95</v>
@@ -6218,7 +6242,7 @@
         <v>52</v>
       </c>
       <c r="S51" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T51" s="38"/>
       <c r="U51" s="39"/>
@@ -6247,13 +6271,13 @@
         <v>45907</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J52" s="38" t="s">
         <v>52</v>
@@ -6267,7 +6291,7 @@
         <v>52</v>
       </c>
       <c r="O52" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P52" s="38" t="s">
         <v>95</v>
@@ -6279,7 +6303,7 @@
         <v>52</v>
       </c>
       <c r="S52" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T52" s="38"/>
       <c r="U52" s="39"/>
@@ -6308,13 +6332,13 @@
         <v>45907</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="J53" s="38" t="s">
         <v>52</v>
@@ -6328,7 +6352,7 @@
         <v>52</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P53" s="38" t="s">
         <v>95</v>
@@ -6340,7 +6364,7 @@
         <v>52</v>
       </c>
       <c r="S53" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T53" s="38"/>
       <c r="U53" s="39"/>
@@ -6369,13 +6393,13 @@
         <v>45907</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I54" s="42" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J54" s="38" t="s">
         <v>52</v>
@@ -6389,7 +6413,7 @@
         <v>52</v>
       </c>
       <c r="O54" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P54" s="38" t="s">
         <v>95</v>
@@ -6401,7 +6425,7 @@
         <v>52</v>
       </c>
       <c r="S54" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T54" s="38"/>
       <c r="U54" s="39"/>
@@ -6430,13 +6454,13 @@
         <v>45907</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I55" s="42" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J55" s="38" t="s">
         <v>52</v>
@@ -6450,7 +6474,7 @@
         <v>52</v>
       </c>
       <c r="O55" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P55" s="38" t="s">
         <v>95</v>
@@ -6462,7 +6486,7 @@
         <v>52</v>
       </c>
       <c r="S55" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T55" s="38"/>
       <c r="U55" s="39"/>
@@ -6491,13 +6515,13 @@
         <v>45907</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J56" s="38" t="s">
         <v>52</v>
@@ -6511,7 +6535,7 @@
         <v>52</v>
       </c>
       <c r="O56" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P56" s="38" t="s">
         <v>95</v>
@@ -6523,7 +6547,7 @@
         <v>52</v>
       </c>
       <c r="S56" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T56" s="38"/>
       <c r="U56" s="39"/>
@@ -6552,13 +6576,13 @@
         <v>45907</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J57" s="38" t="s">
         <v>52</v>
@@ -6572,7 +6596,7 @@
         <v>52</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P57" s="38" t="s">
         <v>95</v>
@@ -6584,7 +6608,7 @@
         <v>52</v>
       </c>
       <c r="S57" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T57" s="38"/>
       <c r="U57" s="39"/>
@@ -6613,13 +6637,13 @@
         <v>45907</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J58" s="38" t="s">
         <v>52</v>
@@ -6633,7 +6657,7 @@
         <v>52</v>
       </c>
       <c r="O58" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P58" s="38" t="s">
         <v>95</v>
@@ -6645,7 +6669,7 @@
         <v>52</v>
       </c>
       <c r="S58" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T58" s="38"/>
       <c r="U58" s="39"/>
@@ -6681,7 +6705,7 @@
         <v>104</v>
       </c>
       <c r="L59" s="38" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M59" s="38"/>
       <c r="N59" s="38"/>
@@ -6724,7 +6748,7 @@
         <v>104</v>
       </c>
       <c r="L60" s="38" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
@@ -6757,16 +6781,16 @@
         <v>139</v>
       </c>
       <c r="F61" s="37">
-        <v>45907</v>
+        <v>45913</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>252</v>
+        <v>366</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>253</v>
+        <v>367</v>
       </c>
       <c r="I61" s="42" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="J61" s="38" t="s">
         <v>52</v>
@@ -6804,16 +6828,16 @@
         <v>140</v>
       </c>
       <c r="F62" s="37">
-        <v>45907</v>
+        <v>45913</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>255</v>
+        <v>369</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>256</v>
+        <v>370</v>
       </c>
       <c r="I62" s="42" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="J62" s="38" t="s">
         <v>52</v>
@@ -6851,16 +6875,16 @@
         <v>134</v>
       </c>
       <c r="F63" s="37">
-        <v>45907</v>
+        <v>45913</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="I63" s="42" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>52</v>
@@ -6901,13 +6925,13 @@
         <v>45907</v>
       </c>
       <c r="G64" s="35" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="H64" s="35" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I64" s="45" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>52</v>
@@ -6921,7 +6945,7 @@
         <v>52</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P64" s="38" t="s">
         <v>95</v>
@@ -6933,7 +6957,7 @@
         <v>52</v>
       </c>
       <c r="S64" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T64" s="38"/>
       <c r="U64" s="35"/>
@@ -6953,22 +6977,22 @@
         <v>38</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F65" s="37">
         <v>45908</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="I65" s="45" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>52</v>
@@ -6982,7 +7006,7 @@
         <v>52</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P65" s="38" t="s">
         <v>95</v>
@@ -6994,7 +7018,7 @@
         <v>52</v>
       </c>
       <c r="S65" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T65" s="38"/>
       <c r="U65" s="35"/>
@@ -7023,13 +7047,13 @@
         <v>45907</v>
       </c>
       <c r="G66" s="35" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H66" s="35" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J66" s="38" t="s">
         <v>52</v>
@@ -7043,7 +7067,7 @@
         <v>52</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P66" s="38" t="s">
         <v>95</v>
@@ -7055,7 +7079,7 @@
         <v>52</v>
       </c>
       <c r="S66" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T66" s="38"/>
       <c r="U66" s="35"/>
@@ -7084,13 +7108,13 @@
         <v>45907</v>
       </c>
       <c r="G67" s="35" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="H67" s="35" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I67" s="45" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="J67" s="38" t="s">
         <v>52</v>
@@ -7104,7 +7128,7 @@
         <v>52</v>
       </c>
       <c r="O67" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P67" s="38" t="s">
         <v>95</v>
@@ -7116,7 +7140,7 @@
         <v>52</v>
       </c>
       <c r="S67" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T67" s="38"/>
       <c r="U67" s="35"/>
@@ -7136,22 +7160,22 @@
         <v>38</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F68" s="37">
-        <v>45908</v>
+        <v>45913</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="I68" s="42" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="J68" s="38" t="s">
         <v>52</v>
@@ -7183,22 +7207,22 @@
         <v>38</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F69" s="37">
-        <v>45908</v>
+        <v>46278</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="I69" s="42" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="J69" s="38" t="s">
         <v>52</v>
@@ -7230,22 +7254,22 @@
         <v>35</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="F70" s="37">
         <v>45907</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="H70" s="37" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="I70" s="42" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="J70" s="38" t="s">
         <v>52</v>
@@ -7259,7 +7283,7 @@
         <v>52</v>
       </c>
       <c r="O70" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P70" s="38" t="s">
         <v>95</v>
@@ -7271,7 +7295,7 @@
         <v>52</v>
       </c>
       <c r="S70" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T70" s="38"/>
       <c r="U70" s="39"/>
@@ -7291,22 +7315,22 @@
         <v>38</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="F71" s="37">
         <v>45908</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="I71" s="42" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="J71" s="38" t="s">
         <v>52</v>
@@ -7320,7 +7344,7 @@
         <v>52</v>
       </c>
       <c r="O71" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P71" s="38" t="s">
         <v>95</v>
@@ -7332,7 +7356,7 @@
         <v>52</v>
       </c>
       <c r="S71" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T71" s="38"/>
       <c r="U71" s="39"/>
@@ -7352,22 +7376,22 @@
         <v>46</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F72" s="37">
         <v>45907</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="I72" s="42" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="J72" s="38" t="s">
         <v>52</v>
@@ -7381,7 +7405,7 @@
         <v>52</v>
       </c>
       <c r="O72" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P72" s="38" t="s">
         <v>95</v>
@@ -7393,7 +7417,7 @@
         <v>52</v>
       </c>
       <c r="S72" s="38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="T72" s="38"/>
       <c r="U72" s="39"/>
@@ -10914,11 +10938,11 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="6">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -13204,6 +13228,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -13461,15 +13494,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13483,6 +13507,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13497,14 +13529,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
